--- a/data.xlsx
+++ b/data.xlsx
@@ -1941,7 +1941,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2145,7 +2145,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4">
         <v>23</v>
       </c>
